--- a/PowerBI/Dados/Dimensões.xlsx
+++ b/PowerBI/Dados/Dimensões.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rodrigodornel-my.sharepoint.com/personal/rodrigo_rdornel_com2/Documents/Hotmart/Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0280e0ea965c576/Treinamento/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{0E027C8E-9E94-477B-BE03-ADC223E324CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412E912E-C517-43EB-BDAC-87C9EE647EE0}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{0E027C8E-9E94-477B-BE03-ADC223E324CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B77BA7-E9CC-47CB-B573-7E6E8A9A825F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3292A208-2BF2-467D-B9E0-D60869556E53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3292A208-2BF2-467D-B9E0-D60869556E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Produto" sheetId="2" r:id="rId2"/>
     <sheet name="GrupoProduto" sheetId="5" r:id="rId3"/>
-    <sheet name="Vendedor" sheetId="3" r:id="rId4"/>
-    <sheet name="Data" sheetId="6" r:id="rId5"/>
+    <sheet name="DimGrupoProduto" sheetId="7" r:id="rId4"/>
+    <sheet name="Vendedor" sheetId="3" r:id="rId5"/>
+    <sheet name="Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cliente!$A$1:$F$1412</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GrupoProduto!$A$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendedor!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Vendedor!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11057" uniqueCount="4320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="4343">
   <si>
     <t>cdCliente</t>
   </si>
@@ -12920,33 +12921,15 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPOQD4c-_BXRaZ4U5LWq137AZzY6_ivopoXaCTFwgRK3zE?width=1024</t>
-  </si>
-  <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOc3v_dhwTjRZUATQjNza-0AXzxi5UkXVeY0wrVSox3SL8?width=225&amp;height=225</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNrk1FjxShLSZ20CPDgjpe4AXZgk0PEmE09GHt21_lJl6U?width=223&amp;height=226</t>
-  </si>
-  <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPDc77GTBVvSI7DCDV-pzaUAfcQoxoz64Fv9rpD_oOXPiE?width=225&amp;height=225</t>
   </si>
   <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMd_AQeUfArTK6ys2OPK3WoAXiulmksvB0cvDNpZfU1VpY?width=1024</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPIRNtmuffmQ5i1jWM4qAzmAV383AN1xMsEU9h0N4r3Lzk?width=1024</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNytCk4lhaMQIKFWuySFa9GAXgCRZfGDVqoPV_vpi_5meY?width=1024</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNIsTwlB2Q9QJJwNNBI9u3kAdrw_ZeIqNHD6sQT8fvhaqY?width=1024</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPCnP5b07KNTr7lto4Clc7MAWBB6-7NT9O5ig1dKXl9XN0?width=556&amp;height=877</t>
-  </si>
-  <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPjP-DMYaCFSrJUYYadwn2fAdvAZM2G7IXotn_QlMt6WTM?width=1024</t>
   </si>
   <si>
@@ -12983,18 +12966,9 @@
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPMR1Z15LDLS4m8RdWKO4yXAfc8_80GF_OB6giiWvGUF8c?width=1024</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPynhaScJ8oSbh6_Y6XMzP8AV6ENVCHUGIQRtbs8eru59w?width=1024</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNq56fkEU0fSKQOxcoVy2R1AU32OqNi0WoOByNgtBvZbS0?width=1024</t>
-  </si>
-  <si>
     <t>Leite Condensado</t>
   </si>
   <si>
-    <t>Masss Lasanha</t>
-  </si>
-  <si>
     <t>Vinho Branco</t>
   </si>
   <si>
@@ -13002,6 +12976,102 @@
   </si>
   <si>
     <t>Suco Garrafa</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPIRNtmuffmQ5i1jWM4qAzmAV383AN1xMsEU9h0N4r3Lzk?width=200&amp;height=200</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMaOCR3ki4WS70Gu7nVKzYyAaEklWha9y49CVXG7TJqHR8?width=110&amp;height=105</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNeLo2H7obVS5m4drDmzUbNAUkrmhh_lELkh7d6aTlvWaU?width=118&amp;height=108</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOsmpFmSZ3OT67RCLjJQ0sJAYGWjUGzUO_Eo-DtHI5AoEY?width=125&amp;height=109</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNo23xA2kO1QI7xZ5UsWJ98AX9SbyOfna1gqVNUK-lBuyc?width=125&amp;height=102</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPRyHMPP9hwSpnGUfzToxqnAalYvIneAwcS8B2tlnVv5AQ?width=102&amp;height=81</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMCdRObf_v8S43qWpeAdCVtAa14Soy09-hAiMTzZIBUWrQ?width=1024</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQN1tyMIhQQbQYoKYMShkFWRAUxwPVSiXQHhtwDkWViENj4?width=93&amp;height=96</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPlAuayHfRWR62YsyNZ92YRAQp_8hwWdXL04Q36Osw39EE?width=158&amp;height=154</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPGWPwPzXeNTLVr5qsThKTvAYTYW0SQjlZkaSO2n-wLnuw?width=99&amp;height=92</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNIsTwlB2Q9QJJwNNBI9u3kAdrw_ZeIqNHD6sQT8fvhaqY?width=400&amp;height=500</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQONrN0Teo7YQYqEXxdVlPtNAdA7Q8aKy8QOEdmHu9Z_qMU?width=132&amp;height=108</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPE6Wnd2VWAS7v8mBT-rDUaAdtGfVV0qlmmU-G8jMlEPqc?width=190&amp;height=172</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOLf1BtIY7TQJCctVUJJFxgAb_6ojGISwZubL3c5XQj3lw?width=90&amp;height=96</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQM8hdf6WX15T7bVsfD_ZIDaAS8k0wBID1_X1kMvQtetXXI?width=94&amp;height=94</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPCnP5b07KNTr7lto4Clc7MAWBB6-7NT9O5ig1dKXl9XN0?width=111&amp;height=108</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMLHRVxuz09TKxWtilUH8qUAf7pvcT_kVz0-I4qgz3UNMw?width=108&amp;height=97</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNq56fkEU0fSKQOxcoVy2R1AU32OqNi0WoOByNgtBvZbS0?width=108&amp;height=68</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPUC1h37W5IT7gGfpjgdDWuAfoaxJ1N7DNvUv4ak68DPqo?width=103&amp;height=90</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPxI_aN6IvGTrlPdKCVKo-CAcfXIc04ky1wW2-fneSqxBA?width=136&amp;height=125</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNN4zgZqBAMTqGfPJm7_FSiAX5NJu9LKubGAOwuQF4bPZo?width=110&amp;height=88</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOIa0_s4XiXRqcnGkofAFmjATi59hNlozOkbep1KwvVYcs?width=86&amp;height=91</t>
+  </si>
+  <si>
+    <t>Massa Lasanha</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMjA8AKp7lYTZ0WlESIgya4Abzb3vB-AnMuuExkrLEBBJ0?width=278&amp;height=246</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOwUPNsopPVSbiZalAKBEgwAZiXUziGWF29xB71VJTcv3Y?width=100&amp;height=108</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPc1iNVmMbETp9oZ912NSAgATs7cTda4nAKfIDQQrSC-8I?width=183&amp;height=275</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNKpqorAYjORb-C3o_KFMqTAWpgun1nN_t_zCGmBcmK3FE?width=119&amp;height=124</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQMYbK9HlEZwQZw3wL0B3RvgAXjO4CsNXzpdZR4jI6CWP50?width=441&amp;height=343</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQOufpmYAgp5SLsQEQXwxk61AbgJFQFgVdRvDB9829XAGqY?width=96&amp;height=82</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQN-CdOYO2WTT7218-uv7UoYASGodFl7gjiiKwcc6KcRPOg?width=156&amp;height=152</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPF8spIq1v8Rr-X3LSsn3JXAaB67p3-G1dGrqNGeT26tOk?width=194&amp;height=165</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNj8DnWYrOJRbCd72WNInaAAXDJsv-vxp7Zdvm_EQaR-Dw?width=115&amp;height=121</t>
   </si>
 </sst>
 </file>
@@ -13065,22 +13135,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -13555,6 +13787,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -14060,72 +14293,95 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9919A2D7-5DE1-46AB-8CEB-AEB86B691E5A}" name="dCliente" displayName="dCliente" ref="A1:F1412" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9919A2D7-5DE1-46AB-8CEB-AEB86B691E5A}" name="dCliente" displayName="dCliente" ref="A1:F1412" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:F1412" xr:uid="{43A2444B-FC49-4B80-8D76-190566B95448}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9C00B1EF-5864-4A8A-B80F-3A3DBDA791A0}" name="cdCliente" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{AEA4436F-8ED5-46BF-B579-1E330E8180C7}" name="Razão Social" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{FB1121A1-F101-4478-BA3C-EC2EE9FC5BB9}" name="Status" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{CE1AC385-A82D-4B80-B5CF-5630A8131BF3}" name="Categoria" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7FE11B45-25B4-46A6-95E7-A7DEAAAA4349}" name="Cidade" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{690BBBAD-959C-4567-AA4A-098FDE3ACB29}" name="UF" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{9C00B1EF-5864-4A8A-B80F-3A3DBDA791A0}" name="cdCliente" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{AEA4436F-8ED5-46BF-B579-1E330E8180C7}" name="Razão Social" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{FB1121A1-F101-4478-BA3C-EC2EE9FC5BB9}" name="Status" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{CE1AC385-A82D-4B80-B5CF-5630A8131BF3}" name="Categoria" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{7FE11B45-25B4-46A6-95E7-A7DEAAAA4349}" name="Cidade" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{690BBBAD-959C-4567-AA4A-098FDE3ACB29}" name="UF" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8578E9DF-B50F-4A42-AFB9-4A5DA66D0F0B}" name="dProduto" displayName="dProduto" ref="A1:C2737" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8578E9DF-B50F-4A42-AFB9-4A5DA66D0F0B}" name="dProduto" displayName="dProduto" ref="A1:C2737" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:C2737" xr:uid="{DEFB1C65-EF98-42A1-A71E-153B7CC826B1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8A93EC71-203E-48A7-AF22-292E15828C8C}" name="cdProduto" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{4E32CEA8-C852-4917-8602-C06A843CB248}" name="Descrição" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{54DF260D-D711-4D5E-9115-5A48F01606E5}" name="cdGrupo" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{8A93EC71-203E-48A7-AF22-292E15828C8C}" name="cdProduto" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4E32CEA8-C852-4917-8602-C06A843CB248}" name="Descrição" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{54DF260D-D711-4D5E-9115-5A48F01606E5}" name="cdGrupo" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA230E20-7856-48B9-9FBD-85F4113774FC}" name="dProdutoGrupo" displayName="dProdutoGrupo" ref="A1:D37" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA230E20-7856-48B9-9FBD-85F4113774FC}" name="dProdutoGrupo" displayName="dProdutoGrupo" ref="A1:D37" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:D37" xr:uid="{7AC6B097-FD89-42BB-8DB6-F9887D4C53E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition ref="B1:B37"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5FBE75A-0111-419E-A098-959F1E7787C4}" name="cdGrupo" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A2BF596C-E3C9-450E-84E7-E73B96CC0701}" name="Grupo" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{18BB1EEF-F1C3-40AA-BABB-5DF78370FB85}" name="Linha" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{5F736EDF-071C-43AF-8CF6-ECAC4C415D78}" name="url" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{A5FBE75A-0111-419E-A098-959F1E7787C4}" name="cdGrupo" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A2BF596C-E3C9-450E-84E7-E73B96CC0701}" name="Grupo" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{18BB1EEF-F1C3-40AA-BABB-5DF78370FB85}" name="Linha" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{5F736EDF-071C-43AF-8CF6-ECAC4C415D78}" name="url" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E93F22F-59E9-4905-8583-E02D99CD6AE6}" name="dVendedor" displayName="dVendedor" ref="A1:H13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:H13" xr:uid="{5205834E-D87B-4CC7-8EA3-F1C2B19FEA29}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DA6F577B-FE8F-4DC4-A605-9C0AB2B02B14}" name="cdVendedor" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{34E37DB6-51F4-4EBC-B49A-9A9860215143}" name="Vendedor" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B1963B26-E31D-4A1E-9D3B-9D80071148C6}" name="cdSupervisor" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{406E6C7E-2974-461B-BB4B-2D39FBB59E89}" name="Supervisor" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{80B081EF-855F-4AA4-AEF0-893CA8DC2522}" name="cdGerente" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{854E6954-230F-4EB1-8D83-845BA0DE3B2E}" name="Gerente" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{140F14F8-0962-4F33-A843-FCC7559BC3E8}" name="Equipe" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3A452CC9-5824-4DA3-9E12-D4D1092559B2}" name="userprincipalname" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{940B4639-4263-453A-866E-FD684E0008BB}" name="dProdutoGrupo7" displayName="dProdutoGrupo7" ref="A1:D37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D37" xr:uid="{940B4639-4263-453A-866E-FD684E0008BB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition ref="B1:B37"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9A23C1C7-026C-46DC-8811-28E0CFC94C88}" name="cdGrupo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{11917499-82CB-439D-B0B4-76EB1A857D04}" name="Grupo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A937F23B-38D6-40FD-9DFA-6A52F36C8487}" name="Linha" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C2B9A8C9-06BC-4A14-95F5-1935DA4191CA}" name="url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9D6E186-7291-46A6-97FE-7DA0ACC939DA}" name="dCalendario" displayName="dCalendario" ref="A1:E1096" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E93F22F-59E9-4905-8583-E02D99CD6AE6}" name="dVendedor" displayName="dVendedor" ref="A1:H13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:H13" xr:uid="{5205834E-D87B-4CC7-8EA3-F1C2B19FEA29}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DA6F577B-FE8F-4DC4-A605-9C0AB2B02B14}" name="cdVendedor" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{34E37DB6-51F4-4EBC-B49A-9A9860215143}" name="Vendedor" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{B1963B26-E31D-4A1E-9D3B-9D80071148C6}" name="cdSupervisor" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{406E6C7E-2974-461B-BB4B-2D39FBB59E89}" name="Supervisor" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{80B081EF-855F-4AA4-AEF0-893CA8DC2522}" name="cdGerente" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{854E6954-230F-4EB1-8D83-845BA0DE3B2E}" name="Gerente" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{140F14F8-0962-4F33-A843-FCC7559BC3E8}" name="Equipe" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3A452CC9-5824-4DA3-9E12-D4D1092559B2}" name="userprincipalname" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9D6E186-7291-46A6-97FE-7DA0ACC939DA}" name="dCalendario" displayName="dCalendario" ref="A1:E1096" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:E1096" xr:uid="{91D613E9-076A-430C-8B79-3D366311D619}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2D8269F5-228B-4733-81B7-78B3203C6484}" name="Data" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C342E405-39AC-42F5-8584-0C478739A3AA}" name="Ano" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{54B362C7-99DE-43A1-AE8C-FA4ABB286C79}" name="Mes" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0E59CB4C-7E84-4C98-B588-933C10213784}" name="MesNum" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{8EC752CD-309D-4AA0-BBA4-7942631DD2C6}" name="Dia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2D8269F5-228B-4733-81B7-78B3203C6484}" name="Data" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C342E405-39AC-42F5-8584-0C478739A3AA}" name="Ano" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{54B362C7-99DE-43A1-AE8C-FA4ABB286C79}" name="Mes" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0E59CB4C-7E84-4C98-B588-933C10213784}" name="MesNum" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8EC752CD-309D-4AA0-BBA4-7942631DD2C6}" name="Dia" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14430,7 +14686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBA94C-418B-4449-AD8E-D9BD667886E7}">
   <dimension ref="A1:F1412"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A166" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -72822,8 +73078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A843D62D-9836-49EB-AC90-87AFBFCD4A59}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72831,7 +73087,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -72844,492 +73100,1128 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>4291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>4292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>4293</v>
+      <c r="D3" s="9" t="s">
+        <v>4311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1510</v>
+        <v>1535</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4294</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>4295</v>
+      <c r="D5" s="9" t="s">
+        <v>4313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>4296</v>
+      <c r="D6" s="9" t="s">
+        <v>4314</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1513</v>
+        <v>1537</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>4297</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4315</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>4298</v>
+      <c r="D8" s="9" t="s">
+        <v>4317</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>4314</v>
+      <c r="D9" s="9" t="s">
+        <v>4316</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>4299</v>
+      <c r="D10" s="9" t="s">
+        <v>4318</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1517</v>
+        <v>1534</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>4300</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4319</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>4301</v>
+      <c r="D12" s="9" t="s">
+        <v>4320</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>4312</v>
+      <c r="D13" s="9" t="s">
+        <v>4293</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>4313</v>
+      <c r="D14" s="9" t="s">
+        <v>4321</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>4322</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>1520</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="9" t="s">
+        <v>4323</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="9" t="s">
+        <v>4324</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="9" t="s">
+        <v>4325</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="9" t="s">
+        <v>4326</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="9" t="s">
+        <v>4327</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="9" t="s">
+        <v>4328</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1527</v>
+        <v>4307</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="9" t="s">
+        <v>4329</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="8" t="s">
+        <v>4330</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4315</v>
+        <v>1531</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="9" t="s">
+        <v>4331</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="9" t="s">
+        <v>4332</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1530</v>
+        <v>4333</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="9" t="s">
+        <v>4334</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="9" t="s">
+        <v>4335</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="9" t="s">
+        <v>4336</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4316</v>
+        <v>1512</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="9" t="s">
+        <v>4294</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>4306</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4317</v>
+        <v>1518</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>4295</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>212</v>
+        <v>9998</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1534</v>
+        <v>4309</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="9" t="s">
+        <v>4337</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>213</v>
+        <v>9999</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1535</v>
+        <v>4310</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="9" t="s">
+        <v>4338</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1536</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>4339</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1537</v>
+        <v>4308</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="9" t="s">
+        <v>4340</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>9998</v>
+        <v>214</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4318</v>
+        <v>1536</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="9" t="s">
+        <v>4341</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4319</v>
+        <v>1533</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="9" t="s">
+        <v>4342</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{DD5B5497-AEF7-4544-9AF5-16A733F76F2F}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{E5975579-7B0B-41F7-A064-811257D8D307}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{7261006E-E7F4-4ED8-877D-28CDF6957039}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{4D39357E-6DF4-4CE5-8E31-BC63E37868B8}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{7570E136-F0DB-4D0A-AAEF-D1CD8C515BEE}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{6569506D-8C89-447A-BE49-67FDB6500AEE}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{62734C79-2CE6-4797-84C8-20C23A6124C5}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{E617C941-3C5A-498C-9AD9-BC9356760C26}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{5AAFEF4C-705C-4E8A-910D-88D8C94D53CE}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{9196BB9A-E753-487A-AC59-12750C9876E4}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{E0DEC925-B609-49EE-9896-14959F933284}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{4469920C-1B15-4013-93EE-A01BD3084E9B}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{4F3F7407-21A0-4449-A516-C4FE058F9875}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E5975579-7B0B-41F7-A064-811257D8D307}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{7261006E-E7F4-4ED8-877D-28CDF6957039}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{7570E136-F0DB-4D0A-AAEF-D1CD8C515BEE}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{6569506D-8C89-447A-BE49-67FDB6500AEE}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{62734C79-2CE6-4797-84C8-20C23A6124C5}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{9196BB9A-E753-487A-AC59-12750C9876E4}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{E0DEC925-B609-49EE-9896-14959F933284}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{4469920C-1B15-4013-93EE-A01BD3084E9B}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{6DCBF498-8558-4D37-87CF-15AD39A59CEE}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{7A4D4D2D-F5E3-4E26-B721-CD765D63F5EC}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{66247174-4760-46BD-9095-1BAC6A4022E9}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{743A6C22-91EA-4A4C-AF45-6DDC1F78ED7E}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{674CD148-51E2-4C84-8BB9-6D708A2260EB}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{CEB3E482-8F3C-4E5B-BD8D-D603C178A405}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{FAC9DC1E-C7A0-4767-B81C-B15D44F31B82}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{8B81C64B-0B4E-4A65-BF4E-4CCE88E7F518}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{921E97BA-D17A-4179-A961-5E93EFEABDDE}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{F84804BD-8E24-4A4A-9C8E-8EF336779D50}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{E6AF565E-AB12-459A-9A94-1DA245E5AA9C}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{980A9C5F-3641-4767-B2B2-5B9BA6877D70}"/>
+    <hyperlink ref="D24" r:id="rId21" xr:uid="{3118332D-96D5-4398-84F2-EDBABB9C9C9F}"/>
+    <hyperlink ref="D25" r:id="rId22" xr:uid="{063D4227-A450-42F1-A211-DB59BAA9A7DA}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{AA2367A6-096C-47F0-9D21-DAC5A4C55894}"/>
+    <hyperlink ref="D27" r:id="rId24" xr:uid="{94672AEF-EC95-4FD6-A485-C1D30C0C7624}"/>
+    <hyperlink ref="D28" r:id="rId25" xr:uid="{78066142-EA4C-4E60-A6B4-4B9DEB75472B}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{C0BE742F-71C0-4E4F-96C1-378AC681BDF6}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{B268FFE2-7106-4C48-8247-4793286E103C}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{7E970EC1-72C7-436F-A67F-D63AB77B9624}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{94942102-E79C-4D2C-8A94-F792DC952F62}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{B34F3FCF-65CD-48D6-841A-52041E3C2215}"/>
+    <hyperlink ref="D37" r:id="rId31" xr:uid="{58FBA655-C114-4CEB-918E-BF14A84018EF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33E395-3168-46C9-95F9-9C476DC988E4}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="114.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>216</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>131</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>111</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>142</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>143</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>199</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>141</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>113</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>112</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9998</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9999</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>211</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>214</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>210</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3EAEAFD3-7CBA-4273-9B6B-F9B6FEA0FFFF}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{699795CE-61AE-48EA-AEEE-0DBDC4BB32C9}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{8EDF5C75-A5F6-42B4-983B-935A8BCEAA0E}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{39BB9BFA-4E0D-4AAF-BD17-A0A34AA1BDD7}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{69508EFA-4C2F-4B4F-A52E-A123376EE1EB}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{A51BE8B5-696B-4D7C-8C68-484A308716DE}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{EC16A22D-07C7-4DEF-B6D6-93F75CA2EE9B}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{C83DD59D-6B38-480B-A62C-89A464294911}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{6C348FCC-EED2-4BC3-9999-75D488375332}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{27469E53-D8AF-444B-AB2D-3D01969916A2}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{25CF25CB-30CA-4AE5-A0DD-72E01596AA04}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{46FC5380-AFCC-4907-ACAC-E0EDD7037919}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{8756E756-FB17-4382-80CE-FE6D39461252}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{707A1FA3-67DE-439B-9BCC-3A95FE0F7B5C}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{F729BD91-0A63-47AE-9FE5-3FBEDFC31F59}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{F38F6A96-2962-40A6-9B68-596D79BA387E}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{A557B402-5B2B-4C2E-A001-58456B57C5F6}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{8C1CA2DE-D922-4673-BF04-EA6B45EC59E0}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{B8D6A838-ABA1-4913-827E-B7F20E213960}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{5F9FA323-0D37-41DF-9179-6058047C907E}"/>
+    <hyperlink ref="D24" r:id="rId21" xr:uid="{EB29AB3E-4161-4262-BECC-5D3497708AD2}"/>
+    <hyperlink ref="D25" r:id="rId22" xr:uid="{00067386-7128-489B-9218-67E5FFAA7282}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{A966A09A-E530-4DCC-B92C-F795CC5B9DDA}"/>
+    <hyperlink ref="D27" r:id="rId24" xr:uid="{DF5CB79B-BBDB-49CE-A6AA-902A34F02E65}"/>
+    <hyperlink ref="D28" r:id="rId25" xr:uid="{650EE8B6-BD68-4248-9000-DDA316E178A0}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{2597C83C-10F6-486B-920C-2916FDFBD571}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{A82BBCBF-D41B-4F53-B7FF-88B3DA92C403}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{537F4F62-AFA4-4C22-A5F5-AD5904A6BD16}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{68719508-1AD4-4A5D-9DCB-C37B1DFDDABD}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{BE0133ED-1CA5-40F2-A981-344041272566}"/>
+    <hyperlink ref="D37" r:id="rId31" xr:uid="{E1F78D1F-FD0C-4D79-AA24-DFD2987528D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId32"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2FDC88-8403-406D-BF4F-774856B6B4A4}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -73372,7 +74264,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4302</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -73397,8 +74289,8 @@
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>4303</v>
+      <c r="H2" s="6" t="s">
+        <v>4297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -73423,8 +74315,8 @@
       <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>4304</v>
+      <c r="H3" s="6" t="s">
+        <v>4298</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -73449,8 +74341,8 @@
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>4305</v>
+      <c r="H4" s="6" t="s">
+        <v>4299</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -73475,8 +74367,8 @@
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>4306</v>
+      <c r="H5" s="6" t="s">
+        <v>4300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -73501,8 +74393,8 @@
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>4307</v>
+      <c r="H6" s="6" t="s">
+        <v>4301</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -73527,8 +74419,8 @@
       <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>4308</v>
+      <c r="H7" s="6" t="s">
+        <v>4302</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -73553,8 +74445,8 @@
       <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>4309</v>
+      <c r="H8" s="6" t="s">
+        <v>4303</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -73579,8 +74471,8 @@
       <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>4310</v>
+      <c r="H9" s="6" t="s">
+        <v>4304</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -73605,8 +74497,8 @@
       <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>4310</v>
+      <c r="H10" s="6" t="s">
+        <v>4304</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -73631,8 +74523,8 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>4304</v>
+      <c r="H11" s="6" t="s">
+        <v>4298</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -73657,8 +74549,8 @@
       <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>4311</v>
+      <c r="H12" s="6" t="s">
+        <v>4305</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -73683,8 +74575,8 @@
       <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>4307</v>
+      <c r="H13" s="6" t="s">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
@@ -73709,7 +74601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC4A0FA-AB27-4AE7-8450-1983A82F35E3}">
   <dimension ref="A1:E1096"/>
   <sheetViews>

--- a/PowerBI/Dados/Dimensões.xlsx
+++ b/PowerBI/Dados/Dimensões.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0280e0ea965c576/Treinamento/Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153454\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{0E027C8E-9E94-477B-BE03-ADC223E324CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B77BA7-E9CC-47CB-B573-7E6E8A9A825F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF41B6B-0AB9-4CC0-BB59-25E20B42DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3292A208-2BF2-467D-B9E0-D60869556E53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3292A208-2BF2-467D-B9E0-D60869556E53}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="4343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="4340">
   <si>
     <t>cdCliente</t>
   </si>
@@ -12936,33 +12936,9 @@
     <t>userprincipalname</t>
   </si>
   <si>
-    <t>gabriel@rdornel.com</t>
-  </si>
-  <si>
-    <t>joao@rdornel.com</t>
-  </si>
-  <si>
-    <t>jomar@rdornel.com</t>
-  </si>
-  <si>
-    <t>jonathan@rdornel.com</t>
-  </si>
-  <si>
-    <t>nicole@rdornel.com</t>
-  </si>
-  <si>
     <t>paulo@rdornel.com</t>
   </si>
   <si>
-    <t>pedro@rdornel.com</t>
-  </si>
-  <si>
-    <t>tamily@rdornel.com</t>
-  </si>
-  <si>
-    <t>kaue@rdornel.com</t>
-  </si>
-  <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQPMR1Z15LDLS4m8RdWKO4yXAfc8_80GF_OB6giiWvGUF8c?width=1024</t>
   </si>
   <si>
@@ -13072,6 +13048,21 @@
   </si>
   <si>
     <t>https://1drv.ms/i/c/e0280e0ea965c576/IQNj8DnWYrOJRbCd72WNInaAAXDJsv-vxp7Zdvm_EQaR-Dw?width=115&amp;height=121</t>
+  </si>
+  <si>
+    <t>aluno01@rdornel.com</t>
+  </si>
+  <si>
+    <t>aluno02@rdornel.com</t>
+  </si>
+  <si>
+    <t>aluno03@rdornel.com</t>
+  </si>
+  <si>
+    <t>aluno04@rdornel.com</t>
+  </si>
+  <si>
+    <t>aluno05@rdornel.com</t>
   </si>
 </sst>
 </file>
@@ -13152,167 +13143,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -13948,6 +13778,167 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -14293,10 +14284,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9919A2D7-5DE1-46AB-8CEB-AEB86B691E5A}" name="dCliente" displayName="dCliente" ref="A1:F1412" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:F1412" xr:uid="{43A2444B-FC49-4B80-8D76-190566B95448}"/>
@@ -14341,47 +14328,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{940B4639-4263-453A-866E-FD684E0008BB}" name="dProdutoGrupo7" displayName="dProdutoGrupo7" ref="A1:D37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{940B4639-4263-453A-866E-FD684E0008BB}" name="dProdutoGrupo7" displayName="dProdutoGrupo7" ref="A1:D37" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D37" xr:uid="{940B4639-4263-453A-866E-FD684E0008BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
     <sortCondition ref="B1:B37"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9A23C1C7-026C-46DC-8811-28E0CFC94C88}" name="cdGrupo" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{11917499-82CB-439D-B0B4-76EB1A857D04}" name="Grupo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A937F23B-38D6-40FD-9DFA-6A52F36C8487}" name="Linha" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C2B9A8C9-06BC-4A14-95F5-1935DA4191CA}" name="url" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9A23C1C7-026C-46DC-8811-28E0CFC94C88}" name="cdGrupo" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{11917499-82CB-439D-B0B4-76EB1A857D04}" name="Grupo" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A937F23B-38D6-40FD-9DFA-6A52F36C8487}" name="Linha" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{C2B9A8C9-06BC-4A14-95F5-1935DA4191CA}" name="url" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E93F22F-59E9-4905-8583-E02D99CD6AE6}" name="dVendedor" displayName="dVendedor" ref="A1:H13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E93F22F-59E9-4905-8583-E02D99CD6AE6}" name="dVendedor" displayName="dVendedor" ref="A1:H13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H13" xr:uid="{5205834E-D87B-4CC7-8EA3-F1C2B19FEA29}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DA6F577B-FE8F-4DC4-A605-9C0AB2B02B14}" name="cdVendedor" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{34E37DB6-51F4-4EBC-B49A-9A9860215143}" name="Vendedor" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{B1963B26-E31D-4A1E-9D3B-9D80071148C6}" name="cdSupervisor" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{406E6C7E-2974-461B-BB4B-2D39FBB59E89}" name="Supervisor" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{80B081EF-855F-4AA4-AEF0-893CA8DC2522}" name="cdGerente" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{854E6954-230F-4EB1-8D83-845BA0DE3B2E}" name="Gerente" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{140F14F8-0962-4F33-A843-FCC7559BC3E8}" name="Equipe" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{3A452CC9-5824-4DA3-9E12-D4D1092559B2}" name="userprincipalname" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DA6F577B-FE8F-4DC4-A605-9C0AB2B02B14}" name="cdVendedor" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{34E37DB6-51F4-4EBC-B49A-9A9860215143}" name="Vendedor" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B1963B26-E31D-4A1E-9D3B-9D80071148C6}" name="cdSupervisor" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{406E6C7E-2974-461B-BB4B-2D39FBB59E89}" name="Supervisor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{80B081EF-855F-4AA4-AEF0-893CA8DC2522}" name="cdGerente" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{854E6954-230F-4EB1-8D83-845BA0DE3B2E}" name="Gerente" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{140F14F8-0962-4F33-A843-FCC7559BC3E8}" name="Equipe" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3A452CC9-5824-4DA3-9E12-D4D1092559B2}" name="userprincipalname" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9D6E186-7291-46A6-97FE-7DA0ACC939DA}" name="dCalendario" displayName="dCalendario" ref="A1:E1096" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9D6E186-7291-46A6-97FE-7DA0ACC939DA}" name="dCalendario" displayName="dCalendario" ref="A1:E1096" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E1096" xr:uid="{91D613E9-076A-430C-8B79-3D366311D619}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2D8269F5-228B-4733-81B7-78B3203C6484}" name="Data" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C342E405-39AC-42F5-8584-0C478739A3AA}" name="Ano" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{54B362C7-99DE-43A1-AE8C-FA4ABB286C79}" name="Mes" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0E59CB4C-7E84-4C98-B588-933C10213784}" name="MesNum" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8EC752CD-309D-4AA0-BBA4-7942631DD2C6}" name="Dia" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2D8269F5-228B-4733-81B7-78B3203C6484}" name="Data" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C342E405-39AC-42F5-8584-0C478739A3AA}" name="Ano" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{54B362C7-99DE-43A1-AE8C-FA4ABB286C79}" name="Mes" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0E59CB4C-7E84-4C98-B588-933C10213784}" name="MesNum" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8EC752CD-309D-4AA0-BBA4-7942631DD2C6}" name="Dia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -73129,7 +73116,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4311</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -73143,7 +73130,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4312</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -73157,7 +73144,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>4313</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -73171,7 +73158,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>4314</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -73185,7 +73172,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>4315</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -73199,7 +73186,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>4317</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -73213,7 +73200,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>4316</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -73227,7 +73214,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>4318</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -73241,7 +73228,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>4319</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -73255,7 +73242,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>4320</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -73283,7 +73270,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>4321</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -73297,7 +73284,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>4322</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -73311,7 +73298,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>4323</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -73325,7 +73312,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>4324</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -73339,7 +73326,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>4325</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -73353,7 +73340,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>4326</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -73367,7 +73354,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>4327</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -73381,7 +73368,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>4328</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -73389,13 +73376,13 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4307</v>
+        <v>4299</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>4329</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -73409,7 +73396,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>4330</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -73423,7 +73410,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>4331</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -73437,7 +73424,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>4332</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -73445,13 +73432,13 @@
         <v>199</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4333</v>
+        <v>4325</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>4334</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -73465,7 +73452,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>4335</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -73479,7 +73466,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>4336</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -73507,7 +73494,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>4306</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -73529,13 +73516,13 @@
         <v>9998</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4309</v>
+        <v>4301</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>4337</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -73543,13 +73530,13 @@
         <v>9999</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4310</v>
+        <v>4302</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>4338</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -73563,7 +73550,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>4339</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -73571,13 +73558,13 @@
         <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4308</v>
+        <v>4300</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>4340</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -73591,7 +73578,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>4341</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -73605,7 +73592,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>4342</v>
+        <v>4334</v>
       </c>
     </row>
   </sheetData>
@@ -73653,7 +73640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33E395-3168-46C9-95F9-9C476DC988E4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -73701,7 +73688,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4311</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -73715,7 +73702,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4312</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -73729,7 +73716,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>4313</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -73743,7 +73730,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>4314</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -73757,7 +73744,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>4315</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -73771,7 +73758,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>4317</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -73785,7 +73772,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>4316</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -73799,7 +73786,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>4318</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -73813,7 +73800,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>4319</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -73827,7 +73814,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>4320</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -73855,7 +73842,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>4321</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -73869,7 +73856,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>4322</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -73883,7 +73870,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>4323</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -73897,7 +73884,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>4324</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -73911,7 +73898,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>4325</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -73925,7 +73912,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>4326</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -73939,7 +73926,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>4327</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -73953,7 +73940,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>4328</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -73961,13 +73948,13 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4307</v>
+        <v>4299</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>4329</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -73981,7 +73968,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>4330</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -73995,7 +73982,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>4331</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -74009,7 +73996,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>4332</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -74017,13 +74004,13 @@
         <v>199</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4333</v>
+        <v>4325</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>4334</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -74037,7 +74024,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>4335</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -74051,7 +74038,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>4336</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -74079,7 +74066,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>4306</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -74101,13 +74088,13 @@
         <v>9998</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4309</v>
+        <v>4301</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>4337</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -74115,13 +74102,13 @@
         <v>9999</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4310</v>
+        <v>4302</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>4338</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -74135,7 +74122,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>4339</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -74143,13 +74130,13 @@
         <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4308</v>
+        <v>4300</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>4340</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -74163,7 +74150,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>4341</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -74177,7 +74164,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>4342</v>
+        <v>4334</v>
       </c>
     </row>
   </sheetData>
@@ -74225,8 +74212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2FDC88-8403-406D-BF4F-774856B6B4A4}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74290,7 +74277,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>4297</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -74316,7 +74303,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>4298</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -74342,7 +74329,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>4299</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -74368,7 +74355,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>4300</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -74394,7 +74381,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>4301</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -74420,7 +74407,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>4302</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -74446,7 +74433,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>4303</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -74472,7 +74459,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>4304</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -74498,7 +74485,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>4304</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -74524,7 +74511,7 @@
         <v>39</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>4298</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -74550,7 +74537,7 @@
         <v>39</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>4305</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -74576,7 +74563,7 @@
         <v>39</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>4301</v>
+        <v>4339</v>
       </c>
     </row>
   </sheetData>
@@ -74588,15 +74575,14 @@
     <hyperlink ref="H6" r:id="rId5" xr:uid="{9D5F24FE-2ACD-4616-BCC6-2B6B08F70FD0}"/>
     <hyperlink ref="H7" r:id="rId6" xr:uid="{A8C81902-E2BE-4232-9E5A-1D0DD8903DA0}"/>
     <hyperlink ref="H8" r:id="rId7" xr:uid="{1ABED20C-4263-42A6-A1B7-EA4D1C7FB6D3}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{C205C0A0-00C1-4A5B-AC25-3098387CA475}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{F7EA6273-1C7E-4A61-B859-3FE41657670A}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{786B52AB-8602-47A2-94DA-0E3F0E8BD6BA}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{0FBCBB71-AF11-43D4-B1C6-5E9EF8E04F76}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{5D025073-8038-4258-A539-3347C03ADB5C}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{786B52AB-8602-47A2-94DA-0E3F0E8BD6BA}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{0FBCBB71-AF11-43D4-B1C6-5E9EF8E04F76}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{5D025073-8038-4258-A539-3347C03ADB5C}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{97056136-0295-46FC-B44C-2935EB98D8C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -93257,15 +93243,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D1600CF117A234F8C85D0A192F4D413" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="da69f8a4d6029be1445e03df53756c8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a37c6f55-69c0-445a-8420-687ec05ee79a" xmlns:ns3="b67beb9a-588a-411f-b8de-0344f7a7cab1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fe173ff9a9a2f7541e11ed8f6c6baf2" ns2:_="" ns3:_="">
     <xsd:import namespace="a37c6f55-69c0-445a-8420-687ec05ee79a"/>
@@ -93514,15 +93491,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102482BC-EFB3-4C3F-BFC8-068B9376A6A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519879D7-25FE-4738-BAA1-36B1EC76D007}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -93539,4 +93517,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102482BC-EFB3-4C3F-BFC8-068B9376A6A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>